--- a/mean_year_temperature_deviation.xlsx
+++ b/mean_year_temperature_deviation.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bobenkom/Documents/GitHub/bobenkom/Climate change/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944DC36D-77D3-184F-A751-642FF2D34C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="80">
   <si>
     <t>region</t>
   </si>
@@ -175,9 +181,6 @@
     <t>Республика Саха (Якутия)</t>
   </si>
   <si>
-    <t xml:space="preserve">Республика Саха (Якутия) </t>
-  </si>
-  <si>
     <t>Республика Северная Осетия — Алания</t>
   </si>
   <si>
@@ -262,8 +265,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,17 +325,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -370,9 +381,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -404,9 +415,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -438,9 +467,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -613,14 +660,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D781"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D771"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A489" workbookViewId="0">
+      <selection activeCell="D492" sqref="D492:D501"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="32.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -631,7 +683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -645,7 +697,7 @@
         <v>-0.76</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -659,7 +711,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -673,7 +725,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -687,7 +739,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -698,10 +750,10 @@
         <v>2014</v>
       </c>
       <c r="D6">
-        <v>0.5600000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -715,7 +767,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -729,7 +781,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -743,7 +795,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -757,7 +809,7 @@
         <v>-0.32</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -771,7 +823,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -785,7 +837,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -799,7 +851,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -813,7 +865,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -824,10 +876,10 @@
         <v>2013</v>
       </c>
       <c r="D15">
-        <v>0.8100000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -841,7 +893,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -855,7 +907,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -869,7 +921,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -883,7 +935,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -897,7 +949,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -911,7 +963,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -925,7 +977,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -936,10 +988,10 @@
         <v>2011</v>
       </c>
       <c r="D23">
-        <v>2.22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -953,7 +1005,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -967,7 +1019,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -981,7 +1033,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -992,10 +1044,10 @@
         <v>2015</v>
       </c>
       <c r="D27">
-        <v>2.18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1009,7 +1061,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1023,7 +1075,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1037,7 +1089,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1051,7 +1103,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1065,7 +1117,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1079,7 +1131,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1093,7 +1145,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1107,7 +1159,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1121,7 +1173,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1132,10 +1184,10 @@
         <v>2015</v>
       </c>
       <c r="D37">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1149,7 +1201,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1163,7 +1215,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1177,7 +1229,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1188,10 +1240,10 @@
         <v>2019</v>
       </c>
       <c r="D41">
-        <v>2.07</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1202,10 +1254,10 @@
         <v>2010</v>
       </c>
       <c r="D42">
-        <v>2.51</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1219,7 +1271,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1233,7 +1285,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1247,7 +1299,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1261,7 +1313,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1275,7 +1327,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1289,7 +1341,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1303,7 +1355,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1317,7 +1369,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1331,7 +1383,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1345,7 +1397,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1359,7 +1411,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1373,7 +1425,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1387,7 +1439,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1401,7 +1453,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1415,7 +1467,7 @@
         <v>2.66</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1429,7 +1481,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1443,7 +1495,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1457,7 +1509,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1471,7 +1523,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1485,7 +1537,7 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1499,7 +1551,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1513,7 +1565,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1527,7 +1579,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1541,7 +1593,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1555,7 +1607,7 @@
         <v>2.57</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1569,7 +1621,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1583,7 +1635,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1597,7 +1649,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1611,7 +1663,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -1625,7 +1677,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1639,7 +1691,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1653,7 +1705,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1667,7 +1719,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -1681,7 +1733,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -1695,7 +1747,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -1709,7 +1761,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -1723,7 +1775,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -1737,7 +1789,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -1751,7 +1803,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -1765,7 +1817,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -1779,7 +1831,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -1790,10 +1842,10 @@
         <v>2012</v>
       </c>
       <c r="D84">
-        <v>2.03</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -1807,7 +1859,7 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -1818,10 +1870,10 @@
         <v>2014</v>
       </c>
       <c r="D86">
-        <v>2.24</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -1835,7 +1887,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -1849,7 +1901,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -1863,7 +1915,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -1877,7 +1929,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -1891,7 +1943,7 @@
         <v>2.66</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -1905,7 +1957,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -1919,7 +1971,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -1933,7 +1985,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -1944,10 +1996,10 @@
         <v>2013</v>
       </c>
       <c r="D95">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -1961,7 +2013,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -1975,7 +2027,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -1989,7 +2041,7 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2000,10 +2052,10 @@
         <v>2017</v>
       </c>
       <c r="D99">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2017,7 +2069,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2031,7 +2083,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2045,7 +2097,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2059,7 +2111,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2073,7 +2125,7 @@
         <v>-0.24</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2087,7 +2139,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2101,7 +2153,7 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2115,7 +2167,7 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2129,7 +2181,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2143,7 +2195,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2157,7 +2209,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2171,7 +2223,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2185,7 +2237,7 @@
         <v>-1.07</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -2199,7 +2251,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -2213,7 +2265,7 @@
         <v>-0.86</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -2227,7 +2279,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -2241,7 +2293,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -2255,7 +2307,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -2266,10 +2318,10 @@
         <v>2016</v>
       </c>
       <c r="D118">
-        <v>0.9399999999999999</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -2283,7 +2335,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -2297,7 +2349,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -2311,7 +2363,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -2325,7 +2377,7 @@
         <v>-0.12</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -2339,7 +2391,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -2350,10 +2402,10 @@
         <v>2012</v>
       </c>
       <c r="D124">
-        <v>0.57</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -2367,7 +2419,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -2381,7 +2433,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -2395,7 +2447,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -2409,7 +2461,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -2423,7 +2475,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -2437,7 +2489,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -2451,7 +2503,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -2465,7 +2517,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -2479,7 +2531,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -2493,7 +2545,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -2507,7 +2559,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -2521,7 +2573,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -2535,7 +2587,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -2549,7 +2601,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -2563,7 +2615,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -2577,7 +2629,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -2591,7 +2643,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -2605,7 +2657,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -2619,7 +2671,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -2630,10 +2682,10 @@
         <v>2012</v>
       </c>
       <c r="D144">
-        <v>1.15</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -2647,7 +2699,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -2661,7 +2713,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -2675,7 +2727,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -2689,7 +2741,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -2703,7 +2755,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -2717,7 +2769,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -2731,7 +2783,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -2745,7 +2797,7 @@
         <v>2.69</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -2759,7 +2811,7 @@
         <v>-0.62</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -2773,7 +2825,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -2784,10 +2836,10 @@
         <v>2013</v>
       </c>
       <c r="D155">
-        <v>1.09</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -2801,7 +2853,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -2815,7 +2867,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -2829,7 +2881,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -2843,7 +2895,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -2857,7 +2909,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -2871,7 +2923,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -2885,7 +2937,7 @@
         <v>-1.38</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -2899,7 +2951,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -2913,7 +2965,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -2924,10 +2976,10 @@
         <v>2013</v>
       </c>
       <c r="D165">
-        <v>1.15</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -2941,7 +2993,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -2955,7 +3007,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -2966,10 +3018,10 @@
         <v>2016</v>
       </c>
       <c r="D168">
-        <v>1.16</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -2983,7 +3035,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -2997,7 +3049,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -3011,7 +3063,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -3025,7 +3077,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -3039,7 +3091,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -3053,7 +3105,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -3067,7 +3119,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -3081,7 +3133,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -3095,7 +3147,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -3109,7 +3161,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -3123,7 +3175,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -3137,7 +3189,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -3151,7 +3203,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -3165,7 +3217,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -3179,7 +3231,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -3193,7 +3245,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -3207,7 +3259,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -3221,7 +3273,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -3235,7 +3287,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -3249,7 +3301,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -3263,7 +3315,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -3277,7 +3329,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -3291,7 +3343,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -3305,7 +3357,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -3319,7 +3371,7 @@
         <v>-0.34</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -3333,7 +3385,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -3347,7 +3399,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -3361,7 +3413,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -3375,7 +3427,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -3386,10 +3438,10 @@
         <v>2016</v>
       </c>
       <c r="D198">
-        <v>1.13</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -3403,7 +3455,7 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -3417,7 +3469,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -3431,7 +3483,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -3445,7 +3497,7 @@
         <v>-0.47</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -3459,7 +3511,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -3473,7 +3525,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -3487,7 +3539,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -3498,10 +3550,10 @@
         <v>2014</v>
       </c>
       <c r="D206">
-        <v>1.11</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -3515,7 +3567,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -3529,7 +3581,7 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -3540,10 +3592,10 @@
         <v>2017</v>
       </c>
       <c r="D209">
-        <v>2.47</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -3557,7 +3609,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -3571,7 +3623,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -3585,7 +3637,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -3599,7 +3651,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -3613,7 +3665,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -3627,7 +3679,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -3641,7 +3693,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -3655,7 +3707,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -3666,10 +3718,10 @@
         <v>2016</v>
       </c>
       <c r="D218">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -3683,7 +3735,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -3697,7 +3749,7 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -3711,7 +3763,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -3725,7 +3777,7 @@
         <v>2.69</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -3736,10 +3788,10 @@
         <v>2011</v>
       </c>
       <c r="D223">
-        <v>1.14</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -3753,7 +3805,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -3767,7 +3819,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -3781,7 +3833,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -3795,7 +3847,7 @@
         <v>2.66</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -3809,7 +3861,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -3823,7 +3875,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -3837,7 +3889,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -3851,7 +3903,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -3865,7 +3917,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -3879,7 +3931,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -3893,7 +3945,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -3907,7 +3959,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -3921,7 +3973,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -3932,10 +3984,10 @@
         <v>2015</v>
       </c>
       <c r="D237">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -3949,7 +4001,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -3963,7 +4015,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -3977,7 +4029,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -3991,7 +4043,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -4005,7 +4057,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -4019,7 +4071,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -4033,7 +4085,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -4047,7 +4099,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -4061,7 +4113,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -4075,7 +4127,7 @@
         <v>2.66</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -4089,7 +4141,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -4103,7 +4155,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -4117,7 +4169,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -4131,7 +4183,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -4145,7 +4197,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -4159,7 +4211,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -4173,7 +4225,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -4184,10 +4236,10 @@
         <v>2013</v>
       </c>
       <c r="D255">
-        <v>1.12</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -4201,7 +4253,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -4215,7 +4267,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -4229,7 +4281,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -4243,7 +4295,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -4257,7 +4309,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -4271,7 +4323,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -4285,7 +4337,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -4299,7 +4351,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -4313,7 +4365,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -4327,7 +4379,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -4341,7 +4393,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -4352,10 +4404,10 @@
         <v>2015</v>
       </c>
       <c r="D267">
-        <v>2.22</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -4369,7 +4421,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -4383,7 +4435,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -4397,7 +4449,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -4411,7 +4463,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -4425,7 +4477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -4439,7 +4491,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -4453,7 +4505,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -4467,7 +4519,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -4478,10 +4530,10 @@
         <v>2014</v>
       </c>
       <c r="D276">
-        <v>2.28</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -4495,7 +4547,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -4509,7 +4561,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -4523,7 +4575,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -4537,7 +4589,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -4551,7 +4603,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -4565,7 +4617,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -4579,7 +4631,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -4593,7 +4645,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -4607,7 +4659,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -4621,7 +4673,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -4635,7 +4687,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -4649,7 +4701,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -4660,10 +4712,10 @@
         <v>2017</v>
       </c>
       <c r="D289">
-        <v>0.8100000000000001</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -4677,7 +4729,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -4691,7 +4743,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -4705,7 +4757,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -4719,7 +4771,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -4733,7 +4785,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -4747,7 +4799,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -4761,7 +4813,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -4775,7 +4827,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -4789,7 +4841,7 @@
         <v>3.18</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -4803,7 +4855,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -4817,7 +4869,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -4831,7 +4883,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -4842,10 +4894,10 @@
         <v>2010</v>
       </c>
       <c r="D302">
-        <v>2.01</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -4856,10 +4908,10 @@
         <v>2011</v>
       </c>
       <c r="D303">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -4873,7 +4925,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -4887,7 +4939,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -4901,7 +4953,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -4915,7 +4967,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -4929,7 +4981,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -4943,7 +4995,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -4957,7 +5009,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -4971,7 +5023,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -4985,7 +5037,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -4999,7 +5051,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -5013,7 +5065,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -5027,7 +5079,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -5041,7 +5093,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -5055,7 +5107,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -5069,7 +5121,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -5083,7 +5135,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -5097,7 +5149,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -5111,7 +5163,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -5125,7 +5177,7 @@
         <v>-0.61</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -5136,10 +5188,10 @@
         <v>2011</v>
       </c>
       <c r="D323">
-        <v>1.12</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -5153,7 +5205,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -5167,7 +5219,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -5181,7 +5233,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -5195,7 +5247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -5209,7 +5261,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -5223,7 +5275,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -5237,7 +5289,7 @@
         <v>-0.35</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -5251,7 +5303,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -5265,7 +5317,7 @@
         <v>-0.16</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -5279,7 +5331,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -5293,7 +5345,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -5304,10 +5356,10 @@
         <v>2013</v>
       </c>
       <c r="D335">
-        <v>1.11</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -5321,7 +5373,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -5335,7 +5387,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -5349,7 +5401,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -5363,7 +5415,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -5377,7 +5429,7 @@
         <v>-0.51</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -5391,7 +5443,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -5402,10 +5454,10 @@
         <v>2010</v>
       </c>
       <c r="D342">
-        <v>2.53</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -5419,7 +5471,7 @@
         <v>-0.34</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -5433,7 +5485,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -5447,7 +5499,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -5461,7 +5513,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -5475,7 +5527,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -5489,7 +5541,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -5500,10 +5552,10 @@
         <v>2017</v>
       </c>
       <c r="D349">
-        <v>1.11</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -5517,7 +5569,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -5531,7 +5583,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -5545,7 +5597,7 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -5556,10 +5608,10 @@
         <v>2011</v>
       </c>
       <c r="D353">
-        <v>0.57</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -5573,7 +5625,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -5587,7 +5639,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -5601,7 +5653,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -5615,7 +5667,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -5629,7 +5681,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -5643,7 +5695,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -5657,7 +5709,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -5668,10 +5720,10 @@
         <v>2019</v>
       </c>
       <c r="D361">
-        <v>2.28</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -5685,7 +5737,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -5699,7 +5751,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -5713,7 +5765,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -5727,7 +5779,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -5741,7 +5793,7 @@
         <v>-0.13</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -5755,7 +5807,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -5769,7 +5821,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -5783,7 +5835,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -5797,7 +5849,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -5811,7 +5863,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -5825,7 +5877,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -5839,7 +5891,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -5853,7 +5905,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -5867,7 +5919,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -5878,10 +5930,10 @@
         <v>2014</v>
       </c>
       <c r="D376">
-        <v>1.14</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -5895,7 +5947,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -5909,7 +5961,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -5923,7 +5975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -5937,7 +5989,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -5951,7 +6003,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -5965,7 +6017,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -5979,7 +6031,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -5993,7 +6045,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -6007,7 +6059,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -6018,10 +6070,10 @@
         <v>2014</v>
       </c>
       <c r="D386">
-        <v>2.05</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -6032,10 +6084,10 @@
         <v>2015</v>
       </c>
       <c r="D387">
-        <v>2.51</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -6049,7 +6101,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -6063,7 +6115,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -6077,7 +6129,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -6091,7 +6143,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -6105,7 +6157,7 @@
         <v>-0.18</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -6119,7 +6171,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -6133,7 +6185,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -6147,7 +6199,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -6161,7 +6213,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -6175,7 +6227,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -6189,7 +6241,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -6203,7 +6255,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -6217,7 +6269,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -6231,7 +6283,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -6245,7 +6297,7 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -6259,7 +6311,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -6273,7 +6325,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -6287,7 +6339,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -6301,7 +6353,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -6315,7 +6367,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -6329,7 +6381,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -6340,10 +6392,10 @@
         <v>2017</v>
       </c>
       <c r="D409">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="410" spans="1:4">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -6357,7 +6409,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -6371,7 +6423,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -6385,7 +6437,7 @@
         <v>-0.45</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -6399,7 +6451,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -6413,7 +6465,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -6427,7 +6479,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -6441,7 +6493,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -6455,7 +6507,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -6469,7 +6521,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -6483,7 +6535,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -6497,7 +6549,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -6511,7 +6563,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -6522,10 +6574,10 @@
         <v>2010</v>
       </c>
       <c r="D422">
-        <v>2.45</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -6539,7 +6591,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -6553,7 +6605,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -6567,7 +6619,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -6581,7 +6633,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -6595,7 +6647,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -6609,7 +6661,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -6623,7 +6675,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -6637,7 +6689,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -6651,7 +6703,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -6665,7 +6717,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -6679,7 +6731,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -6693,7 +6745,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -6707,7 +6759,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -6721,7 +6773,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -6735,7 +6787,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -6749,7 +6801,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -6763,7 +6815,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -6777,7 +6829,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -6791,7 +6843,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -6805,7 +6857,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -6819,7 +6871,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -6833,7 +6885,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -6844,10 +6896,10 @@
         <v>2013</v>
       </c>
       <c r="D445">
-        <v>2.05</v>
-      </c>
-    </row>
-    <row r="446" spans="1:4">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -6861,7 +6913,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -6875,7 +6927,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -6889,7 +6941,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -6903,7 +6955,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -6917,7 +6969,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -6931,7 +6983,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -6945,7 +6997,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -6959,7 +7011,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="454" spans="1:4">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -6973,7 +7025,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -6987,7 +7039,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -7001,7 +7053,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -7015,7 +7067,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="458" spans="1:4">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -7029,7 +7081,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -7043,7 +7095,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -7057,7 +7109,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="461" spans="1:4">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -7071,7 +7123,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="462" spans="1:4">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -7085,7 +7137,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="463" spans="1:4">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -7099,7 +7151,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="464" spans="1:4">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -7113,7 +7165,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="465" spans="1:4">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -7127,7 +7179,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="466" spans="1:4">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -7141,7 +7193,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -7155,7 +7207,7 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="468" spans="1:4">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -7169,7 +7221,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="469" spans="1:4">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -7183,7 +7235,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="470" spans="1:4">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -7197,7 +7249,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="471" spans="1:4">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -7211,7 +7263,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="472" spans="1:4">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -7225,7 +7277,7 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="473" spans="1:4">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -7239,7 +7291,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="474" spans="1:4">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -7253,7 +7305,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="475" spans="1:4">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -7267,7 +7319,7 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="476" spans="1:4">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -7281,7 +7333,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="477" spans="1:4">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -7295,7 +7347,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="478" spans="1:4">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -7309,7 +7361,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="479" spans="1:4">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -7323,7 +7375,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="480" spans="1:4">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -7337,7 +7389,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="481" spans="1:4">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -7351,7 +7403,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="482" spans="1:4">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -7365,7 +7417,7 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="483" spans="1:4">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -7379,7 +7431,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="484" spans="1:4">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -7393,7 +7445,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="485" spans="1:4">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -7407,7 +7459,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="486" spans="1:4">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -7421,7 +7473,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="487" spans="1:4">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -7435,7 +7487,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="488" spans="1:4">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -7449,7 +7501,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="489" spans="1:4">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -7460,10 +7512,10 @@
         <v>2017</v>
       </c>
       <c r="D489">
-        <v>0.9399999999999999</v>
-      </c>
-    </row>
-    <row r="490" spans="1:4">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -7477,7 +7529,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="491" spans="1:4">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -7491,7 +7543,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="492" spans="1:4">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -7502,10 +7554,10 @@
         <v>2010</v>
       </c>
       <c r="D492">
-        <v>1.43</v>
-      </c>
-    </row>
-    <row r="493" spans="1:4">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -7516,10 +7568,10 @@
         <v>2011</v>
       </c>
       <c r="D493">
-        <v>2.03</v>
-      </c>
-    </row>
-    <row r="494" spans="1:4">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -7530,10 +7582,10 @@
         <v>2012</v>
       </c>
       <c r="D494">
-        <v>1.46</v>
-      </c>
-    </row>
-    <row r="495" spans="1:4">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -7544,10 +7596,10 @@
         <v>2013</v>
       </c>
       <c r="D495">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="496" spans="1:4">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -7561,7 +7613,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="497" spans="1:4">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -7572,10 +7624,10 @@
         <v>2015</v>
       </c>
       <c r="D497">
-        <v>2.04</v>
-      </c>
-    </row>
-    <row r="498" spans="1:4">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -7586,10 +7638,10 @@
         <v>2016</v>
       </c>
       <c r="D498">
-        <v>1.66</v>
-      </c>
-    </row>
-    <row r="499" spans="1:4">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -7600,10 +7652,10 @@
         <v>2017</v>
       </c>
       <c r="D499">
-        <v>2.13</v>
-      </c>
-    </row>
-    <row r="500" spans="1:4">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -7614,10 +7666,10 @@
         <v>2018</v>
       </c>
       <c r="D500">
-        <v>2.26</v>
-      </c>
-    </row>
-    <row r="501" spans="1:4">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -7628,10 +7680,10 @@
         <v>2019</v>
       </c>
       <c r="D501">
-        <v>2.48</v>
-      </c>
-    </row>
-    <row r="502" spans="1:4">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -7642,10 +7694,10 @@
         <v>2010</v>
       </c>
       <c r="D502">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="503" spans="1:4">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -7656,10 +7708,10 @@
         <v>2011</v>
       </c>
       <c r="D503">
-        <v>2.23</v>
-      </c>
-    </row>
-    <row r="504" spans="1:4">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -7670,10 +7722,10 @@
         <v>2012</v>
       </c>
       <c r="D504">
-        <v>-0.5600000000000001</v>
-      </c>
-    </row>
-    <row r="505" spans="1:4">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -7684,10 +7736,10 @@
         <v>2013</v>
       </c>
       <c r="D505">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="506" spans="1:4">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -7698,10 +7750,10 @@
         <v>2014</v>
       </c>
       <c r="D506">
-        <v>1.43</v>
-      </c>
-    </row>
-    <row r="507" spans="1:4">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -7712,10 +7764,10 @@
         <v>2015</v>
       </c>
       <c r="D507">
-        <v>2.45</v>
-      </c>
-    </row>
-    <row r="508" spans="1:4">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -7726,10 +7778,10 @@
         <v>2016</v>
       </c>
       <c r="D508">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="509" spans="1:4">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -7740,10 +7792,10 @@
         <v>2017</v>
       </c>
       <c r="D509">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="510" spans="1:4">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -7754,10 +7806,10 @@
         <v>2018</v>
       </c>
       <c r="D510">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="511" spans="1:4">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -7768,10 +7820,10 @@
         <v>2019</v>
       </c>
       <c r="D511">
-        <v>2.05</v>
-      </c>
-    </row>
-    <row r="512" spans="1:4">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -7782,10 +7834,10 @@
         <v>2010</v>
       </c>
       <c r="D512">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="513" spans="1:4">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -7796,10 +7848,10 @@
         <v>2011</v>
       </c>
       <c r="D513">
-        <v>-0.32</v>
-      </c>
-    </row>
-    <row r="514" spans="1:4">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -7810,10 +7862,10 @@
         <v>2012</v>
       </c>
       <c r="D514">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="515" spans="1:4">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -7824,10 +7876,10 @@
         <v>2013</v>
       </c>
       <c r="D515">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="516" spans="1:4">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -7838,10 +7890,10 @@
         <v>2014</v>
       </c>
       <c r="D516">
-        <v>1.74</v>
-      </c>
-    </row>
-    <row r="517" spans="1:4">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -7852,10 +7904,10 @@
         <v>2015</v>
       </c>
       <c r="D517">
-        <v>2.19</v>
-      </c>
-    </row>
-    <row r="518" spans="1:4">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -7866,10 +7918,10 @@
         <v>2016</v>
       </c>
       <c r="D518">
-        <v>1.76</v>
-      </c>
-    </row>
-    <row r="519" spans="1:4">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -7880,10 +7932,10 @@
         <v>2017</v>
       </c>
       <c r="D519">
-        <v>2.19</v>
-      </c>
-    </row>
-    <row r="520" spans="1:4">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -7894,10 +7946,10 @@
         <v>2018</v>
       </c>
       <c r="D520">
-        <v>2.29</v>
-      </c>
-    </row>
-    <row r="521" spans="1:4">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -7908,10 +7960,10 @@
         <v>2019</v>
       </c>
       <c r="D521">
-        <v>2.84</v>
-      </c>
-    </row>
-    <row r="522" spans="1:4">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -7922,10 +7974,10 @@
         <v>2010</v>
       </c>
       <c r="D522">
-        <v>2.28</v>
-      </c>
-    </row>
-    <row r="523" spans="1:4">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -7936,10 +7988,10 @@
         <v>2011</v>
       </c>
       <c r="D523">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="524" spans="1:4">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -7950,10 +8002,10 @@
         <v>2012</v>
       </c>
       <c r="D524">
-        <v>1.49</v>
-      </c>
-    </row>
-    <row r="525" spans="1:4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -7964,10 +8016,10 @@
         <v>2013</v>
       </c>
       <c r="D525">
-        <v>2.04</v>
-      </c>
-    </row>
-    <row r="526" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -7978,10 +8030,10 @@
         <v>2014</v>
       </c>
       <c r="D526">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="527" spans="1:4">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -7992,10 +8044,10 @@
         <v>2015</v>
       </c>
       <c r="D527">
-        <v>2.14</v>
-      </c>
-    </row>
-    <row r="528" spans="1:4">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -8006,10 +8058,10 @@
         <v>2016</v>
       </c>
       <c r="D528">
-        <v>2.04</v>
-      </c>
-    </row>
-    <row r="529" spans="1:4">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -8020,10 +8072,10 @@
         <v>2017</v>
       </c>
       <c r="D529">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="530" spans="1:4">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -8034,10 +8086,10 @@
         <v>2018</v>
       </c>
       <c r="D530">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="531" spans="1:4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -8048,10 +8100,10 @@
         <v>2019</v>
       </c>
       <c r="D531">
-        <v>1.82</v>
-      </c>
-    </row>
-    <row r="532" spans="1:4">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -8062,10 +8114,10 @@
         <v>2010</v>
       </c>
       <c r="D532">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="533" spans="1:4">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -8076,10 +8128,10 @@
         <v>2011</v>
       </c>
       <c r="D533">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="534" spans="1:4">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>532</v>
       </c>
@@ -8090,10 +8142,10 @@
         <v>2012</v>
       </c>
       <c r="D534">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="535" spans="1:4">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>533</v>
       </c>
@@ -8104,10 +8156,10 @@
         <v>2013</v>
       </c>
       <c r="D535">
-        <v>1.53</v>
-      </c>
-    </row>
-    <row r="536" spans="1:4">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -8118,10 +8170,10 @@
         <v>2014</v>
       </c>
       <c r="D536">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="537" spans="1:4">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>535</v>
       </c>
@@ -8132,10 +8184,10 @@
         <v>2015</v>
       </c>
       <c r="D537">
-        <v>2.91</v>
-      </c>
-    </row>
-    <row r="538" spans="1:4">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -8146,10 +8198,10 @@
         <v>2016</v>
       </c>
       <c r="D538">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="539" spans="1:4">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -8160,10 +8212,10 @@
         <v>2017</v>
       </c>
       <c r="D539">
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="540" spans="1:4">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -8174,10 +8226,10 @@
         <v>2018</v>
       </c>
       <c r="D540">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="541" spans="1:4">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <v>539</v>
       </c>
@@ -8188,10 +8240,10 @@
         <v>2019</v>
       </c>
       <c r="D541">
-        <v>2.04</v>
-      </c>
-    </row>
-    <row r="542" spans="1:4">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -8202,10 +8254,10 @@
         <v>2010</v>
       </c>
       <c r="D542">
-        <v>-0.32</v>
-      </c>
-    </row>
-    <row r="543" spans="1:4">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -8216,10 +8268,10 @@
         <v>2011</v>
       </c>
       <c r="D543">
-        <v>1.58</v>
-      </c>
-    </row>
-    <row r="544" spans="1:4">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -8230,10 +8282,10 @@
         <v>2012</v>
       </c>
       <c r="D544">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="545" spans="1:4">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -8244,10 +8296,10 @@
         <v>2013</v>
       </c>
       <c r="D545">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="546" spans="1:4">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -8258,10 +8310,10 @@
         <v>2014</v>
       </c>
       <c r="D546">
-        <v>1.22</v>
-      </c>
-    </row>
-    <row r="547" spans="1:4">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>545</v>
       </c>
@@ -8272,10 +8324,10 @@
         <v>2015</v>
       </c>
       <c r="D547">
-        <v>2.71</v>
-      </c>
-    </row>
-    <row r="548" spans="1:4">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -8286,10 +8338,10 @@
         <v>2016</v>
       </c>
       <c r="D548">
-        <v>1.46</v>
-      </c>
-    </row>
-    <row r="549" spans="1:4">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -8300,10 +8352,10 @@
         <v>2017</v>
       </c>
       <c r="D549">
-        <v>2.67</v>
-      </c>
-    </row>
-    <row r="550" spans="1:4">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -8314,10 +8366,10 @@
         <v>2018</v>
       </c>
       <c r="D550">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="551" spans="1:4">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -8328,10 +8380,10 @@
         <v>2019</v>
       </c>
       <c r="D551">
-        <v>1.69</v>
-      </c>
-    </row>
-    <row r="552" spans="1:4">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -8342,10 +8394,10 @@
         <v>2010</v>
       </c>
       <c r="D552">
-        <v>2.54</v>
-      </c>
-    </row>
-    <row r="553" spans="1:4">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -8356,10 +8408,10 @@
         <v>2011</v>
       </c>
       <c r="D553">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="554" spans="1:4">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -8370,10 +8422,10 @@
         <v>2012</v>
       </c>
       <c r="D554">
-        <v>1.61</v>
-      </c>
-    </row>
-    <row r="555" spans="1:4">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -8384,10 +8436,10 @@
         <v>2013</v>
       </c>
       <c r="D555">
-        <v>1.77</v>
-      </c>
-    </row>
-    <row r="556" spans="1:4">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -8398,10 +8450,10 @@
         <v>2014</v>
       </c>
       <c r="D556">
-        <v>1.38</v>
-      </c>
-    </row>
-    <row r="557" spans="1:4">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -8412,10 +8464,10 @@
         <v>2015</v>
       </c>
       <c r="D557">
-        <v>2.19</v>
-      </c>
-    </row>
-    <row r="558" spans="1:4">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -8426,10 +8478,10 @@
         <v>2016</v>
       </c>
       <c r="D558">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="559" spans="1:4">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -8440,10 +8492,10 @@
         <v>2017</v>
       </c>
       <c r="D559">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="560" spans="1:4">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <v>558</v>
       </c>
@@ -8454,10 +8506,10 @@
         <v>2018</v>
       </c>
       <c r="D560">
-        <v>1.77</v>
-      </c>
-    </row>
-    <row r="561" spans="1:4">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -8468,10 +8520,10 @@
         <v>2019</v>
       </c>
       <c r="D561">
-        <v>2.41</v>
-      </c>
-    </row>
-    <row r="562" spans="1:4">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -8482,10 +8534,10 @@
         <v>2010</v>
       </c>
       <c r="D562">
-        <v>2.29</v>
-      </c>
-    </row>
-    <row r="563" spans="1:4">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <v>561</v>
       </c>
@@ -8496,10 +8548,10 @@
         <v>2011</v>
       </c>
       <c r="D563">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="564" spans="1:4">
+        <v>-0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>562</v>
       </c>
@@ -8510,10 +8562,10 @@
         <v>2012</v>
       </c>
       <c r="D564">
-        <v>1.12</v>
-      </c>
-    </row>
-    <row r="565" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -8524,10 +8576,10 @@
         <v>2013</v>
       </c>
       <c r="D565">
-        <v>1.84</v>
-      </c>
-    </row>
-    <row r="566" spans="1:4">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -8538,10 +8590,10 @@
         <v>2014</v>
       </c>
       <c r="D566">
-        <v>2.14</v>
-      </c>
-    </row>
-    <row r="567" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <v>565</v>
       </c>
@@ -8552,10 +8604,10 @@
         <v>2015</v>
       </c>
       <c r="D567">
-        <v>2.53</v>
-      </c>
-    </row>
-    <row r="568" spans="1:4">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
         <v>566</v>
       </c>
@@ -8566,10 +8618,10 @@
         <v>2016</v>
       </c>
       <c r="D568">
-        <v>1.48</v>
-      </c>
-    </row>
-    <row r="569" spans="1:4">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -8580,10 +8632,10 @@
         <v>2017</v>
       </c>
       <c r="D569">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="570" spans="1:4">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -8594,10 +8646,10 @@
         <v>2018</v>
       </c>
       <c r="D570">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="571" spans="1:4">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
         <v>569</v>
       </c>
@@ -8608,10 +8660,10 @@
         <v>2019</v>
       </c>
       <c r="D571">
-        <v>2.51</v>
-      </c>
-    </row>
-    <row r="572" spans="1:4">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
         <v>570</v>
       </c>
@@ -8622,10 +8674,10 @@
         <v>2010</v>
       </c>
       <c r="D572">
-        <v>2.78</v>
-      </c>
-    </row>
-    <row r="573" spans="1:4">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
         <v>571</v>
       </c>
@@ -8636,10 +8688,10 @@
         <v>2011</v>
       </c>
       <c r="D573">
-        <v>-0.29</v>
-      </c>
-    </row>
-    <row r="574" spans="1:4">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
         <v>572</v>
       </c>
@@ -8650,10 +8702,10 @@
         <v>2012</v>
       </c>
       <c r="D574">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="575" spans="1:4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
         <v>573</v>
       </c>
@@ -8664,10 +8716,10 @@
         <v>2013</v>
       </c>
       <c r="D575">
-        <v>2.01</v>
-      </c>
-    </row>
-    <row r="576" spans="1:4">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
         <v>574</v>
       </c>
@@ -8678,10 +8730,10 @@
         <v>2014</v>
       </c>
       <c r="D576">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="577" spans="1:4">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
         <v>575</v>
       </c>
@@ -8692,10 +8744,10 @@
         <v>2015</v>
       </c>
       <c r="D577">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="578" spans="1:4">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
         <v>576</v>
       </c>
@@ -8706,10 +8758,10 @@
         <v>2016</v>
       </c>
       <c r="D578">
-        <v>1.71</v>
-      </c>
-    </row>
-    <row r="579" spans="1:4">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
         <v>577</v>
       </c>
@@ -8720,10 +8772,10 @@
         <v>2017</v>
       </c>
       <c r="D579">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="580" spans="1:4">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
         <v>578</v>
       </c>
@@ -8734,10 +8786,10 @@
         <v>2018</v>
       </c>
       <c r="D580">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="581" spans="1:4">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
         <v>579</v>
       </c>
@@ -8748,10 +8800,10 @@
         <v>2019</v>
       </c>
       <c r="D581">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="582" spans="1:4">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
         <v>580</v>
       </c>
@@ -8762,10 +8814,10 @@
         <v>2010</v>
       </c>
       <c r="D582">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="583" spans="1:4">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
         <v>581</v>
       </c>
@@ -8776,10 +8828,10 @@
         <v>2011</v>
       </c>
       <c r="D583">
-        <v>1.76</v>
-      </c>
-    </row>
-    <row r="584" spans="1:4">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
         <v>582</v>
       </c>
@@ -8790,10 +8842,10 @@
         <v>2012</v>
       </c>
       <c r="D584">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="585" spans="1:4">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
         <v>583</v>
       </c>
@@ -8804,10 +8856,10 @@
         <v>2013</v>
       </c>
       <c r="D585">
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="586" spans="1:4">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
         <v>584</v>
       </c>
@@ -8818,10 +8870,10 @@
         <v>2014</v>
       </c>
       <c r="D586">
-        <v>2.12</v>
-      </c>
-    </row>
-    <row r="587" spans="1:4">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
         <v>585</v>
       </c>
@@ -8832,10 +8884,10 @@
         <v>2015</v>
       </c>
       <c r="D587">
-        <v>2.34</v>
-      </c>
-    </row>
-    <row r="588" spans="1:4">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
         <v>586</v>
       </c>
@@ -8846,10 +8898,10 @@
         <v>2016</v>
       </c>
       <c r="D588">
-        <v>1.19</v>
-      </c>
-    </row>
-    <row r="589" spans="1:4">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
         <v>587</v>
       </c>
@@ -8860,10 +8912,10 @@
         <v>2017</v>
       </c>
       <c r="D589">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="590" spans="1:4">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
         <v>588</v>
       </c>
@@ -8874,10 +8926,10 @@
         <v>2018</v>
       </c>
       <c r="D590">
-        <v>2.01</v>
-      </c>
-    </row>
-    <row r="591" spans="1:4">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
         <v>589</v>
       </c>
@@ -8888,10 +8940,10 @@
         <v>2019</v>
       </c>
       <c r="D591">
-        <v>2.23</v>
-      </c>
-    </row>
-    <row r="592" spans="1:4">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
         <v>590</v>
       </c>
@@ -8902,10 +8954,10 @@
         <v>2010</v>
       </c>
       <c r="D592">
-        <v>2.54</v>
-      </c>
-    </row>
-    <row r="593" spans="1:4">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
         <v>591</v>
       </c>
@@ -8916,10 +8968,10 @@
         <v>2011</v>
       </c>
       <c r="D593">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="594" spans="1:4">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
         <v>592</v>
       </c>
@@ -8930,10 +8982,10 @@
         <v>2012</v>
       </c>
       <c r="D594">
-        <v>1.59</v>
-      </c>
-    </row>
-    <row r="595" spans="1:4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
         <v>593</v>
       </c>
@@ -8944,10 +8996,10 @@
         <v>2013</v>
       </c>
       <c r="D595">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="596" spans="1:4">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
         <v>594</v>
       </c>
@@ -8958,10 +9010,10 @@
         <v>2014</v>
       </c>
       <c r="D596">
-        <v>1.11</v>
-      </c>
-    </row>
-    <row r="597" spans="1:4">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
         <v>595</v>
       </c>
@@ -8972,10 +9024,10 @@
         <v>2015</v>
       </c>
       <c r="D597">
-        <v>2.13</v>
-      </c>
-    </row>
-    <row r="598" spans="1:4">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
         <v>596</v>
       </c>
@@ -8986,10 +9038,10 @@
         <v>2016</v>
       </c>
       <c r="D598">
-        <v>1.47</v>
-      </c>
-    </row>
-    <row r="599" spans="1:4">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
         <v>597</v>
       </c>
@@ -9000,10 +9052,10 @@
         <v>2017</v>
       </c>
       <c r="D599">
-        <v>1.29</v>
-      </c>
-    </row>
-    <row r="600" spans="1:4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
         <v>598</v>
       </c>
@@ -9014,10 +9066,10 @@
         <v>2018</v>
       </c>
       <c r="D600">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="601" spans="1:4">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
         <v>599</v>
       </c>
@@ -9028,10 +9080,10 @@
         <v>2019</v>
       </c>
       <c r="D601">
-        <v>1.96</v>
-      </c>
-    </row>
-    <row r="602" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
         <v>600</v>
       </c>
@@ -9042,10 +9094,10 @@
         <v>2010</v>
       </c>
       <c r="D602">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="603" spans="1:4">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
         <v>601</v>
       </c>
@@ -9056,10 +9108,10 @@
         <v>2011</v>
       </c>
       <c r="D603">
-        <v>1.15</v>
-      </c>
-    </row>
-    <row r="604" spans="1:4">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
         <v>602</v>
       </c>
@@ -9070,10 +9122,10 @@
         <v>2012</v>
       </c>
       <c r="D604">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="605" spans="1:4">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
         <v>603</v>
       </c>
@@ -9084,10 +9136,10 @@
         <v>2013</v>
       </c>
       <c r="D605">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="606" spans="1:4">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
         <v>604</v>
       </c>
@@ -9098,10 +9150,10 @@
         <v>2014</v>
       </c>
       <c r="D606">
-        <v>1.19</v>
-      </c>
-    </row>
-    <row r="607" spans="1:4">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
         <v>605</v>
       </c>
@@ -9112,10 +9164,10 @@
         <v>2015</v>
       </c>
       <c r="D607">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="608" spans="1:4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
         <v>606</v>
       </c>
@@ -9126,10 +9178,10 @@
         <v>2016</v>
       </c>
       <c r="D608">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="609" spans="1:4">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
         <v>607</v>
       </c>
@@ -9140,10 +9192,10 @@
         <v>2017</v>
       </c>
       <c r="D609">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="610" spans="1:4">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
         <v>608</v>
       </c>
@@ -9154,10 +9206,10 @@
         <v>2018</v>
       </c>
       <c r="D610">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="611" spans="1:4">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
         <v>609</v>
       </c>
@@ -9168,10 +9220,10 @@
         <v>2019</v>
       </c>
       <c r="D611">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="612" spans="1:4">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
         <v>610</v>
       </c>
@@ -9182,10 +9234,10 @@
         <v>2010</v>
       </c>
       <c r="D612">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="613" spans="1:4">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
         <v>611</v>
       </c>
@@ -9196,10 +9248,10 @@
         <v>2011</v>
       </c>
       <c r="D613">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="614" spans="1:4">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
         <v>612</v>
       </c>
@@ -9210,10 +9262,10 @@
         <v>2012</v>
       </c>
       <c r="D614">
-        <v>1.76</v>
-      </c>
-    </row>
-    <row r="615" spans="1:4">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
         <v>613</v>
       </c>
@@ -9224,10 +9276,10 @@
         <v>2013</v>
       </c>
       <c r="D615">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="616" spans="1:4">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
         <v>614</v>
       </c>
@@ -9238,10 +9290,10 @@
         <v>2014</v>
       </c>
       <c r="D616">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="617" spans="1:4">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A617" s="1">
         <v>615</v>
       </c>
@@ -9252,10 +9304,10 @@
         <v>2015</v>
       </c>
       <c r="D617">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="618" spans="1:4">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A618" s="1">
         <v>616</v>
       </c>
@@ -9266,10 +9318,10 @@
         <v>2016</v>
       </c>
       <c r="D618">
-        <v>1.18</v>
-      </c>
-    </row>
-    <row r="619" spans="1:4">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A619" s="1">
         <v>617</v>
       </c>
@@ -9280,10 +9332,10 @@
         <v>2017</v>
       </c>
       <c r="D619">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="620" spans="1:4">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
         <v>618</v>
       </c>
@@ -9294,10 +9346,10 @@
         <v>2018</v>
       </c>
       <c r="D620">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="621" spans="1:4">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A621" s="1">
         <v>619</v>
       </c>
@@ -9308,10 +9360,10 @@
         <v>2019</v>
       </c>
       <c r="D621">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="622" spans="1:4">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A622" s="1">
         <v>620</v>
       </c>
@@ -9322,10 +9374,10 @@
         <v>2010</v>
       </c>
       <c r="D622">
-        <v>1.86</v>
-      </c>
-    </row>
-    <row r="623" spans="1:4">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A623" s="1">
         <v>621</v>
       </c>
@@ -9336,10 +9388,10 @@
         <v>2011</v>
       </c>
       <c r="D623">
-        <v>1.59</v>
-      </c>
-    </row>
-    <row r="624" spans="1:4">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A624" s="1">
         <v>622</v>
       </c>
@@ -9350,10 +9402,10 @@
         <v>2012</v>
       </c>
       <c r="D624">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="625" spans="1:4">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
         <v>623</v>
       </c>
@@ -9364,10 +9416,10 @@
         <v>2013</v>
       </c>
       <c r="D625">
-        <v>1.68</v>
-      </c>
-    </row>
-    <row r="626" spans="1:4">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A626" s="1">
         <v>624</v>
       </c>
@@ -9378,10 +9430,10 @@
         <v>2014</v>
       </c>
       <c r="D626">
-        <v>2.36</v>
-      </c>
-    </row>
-    <row r="627" spans="1:4">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A627" s="1">
         <v>625</v>
       </c>
@@ -9392,10 +9444,10 @@
         <v>2015</v>
       </c>
       <c r="D627">
-        <v>2.86</v>
-      </c>
-    </row>
-    <row r="628" spans="1:4">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A628" s="1">
         <v>626</v>
       </c>
@@ -9406,10 +9458,10 @@
         <v>2016</v>
       </c>
       <c r="D628">
-        <v>1.49</v>
-      </c>
-    </row>
-    <row r="629" spans="1:4">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A629" s="1">
         <v>627</v>
       </c>
@@ -9420,10 +9472,10 @@
         <v>2017</v>
       </c>
       <c r="D629">
-        <v>1.36</v>
-      </c>
-    </row>
-    <row r="630" spans="1:4">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A630" s="1">
         <v>628</v>
       </c>
@@ -9434,10 +9486,10 @@
         <v>2018</v>
       </c>
       <c r="D630">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="631" spans="1:4">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A631" s="1">
         <v>629</v>
       </c>
@@ -9448,10 +9500,10 @@
         <v>2019</v>
       </c>
       <c r="D631">
-        <v>2.91</v>
-      </c>
-    </row>
-    <row r="632" spans="1:4">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A632" s="1">
         <v>630</v>
       </c>
@@ -9462,10 +9514,10 @@
         <v>2010</v>
       </c>
       <c r="D632">
-        <v>2.66</v>
-      </c>
-    </row>
-    <row r="633" spans="1:4">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A633" s="1">
         <v>631</v>
       </c>
@@ -9476,10 +9528,10 @@
         <v>2011</v>
       </c>
       <c r="D633">
-        <v>-0.21</v>
-      </c>
-    </row>
-    <row r="634" spans="1:4">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A634" s="1">
         <v>632</v>
       </c>
@@ -9490,10 +9542,10 @@
         <v>2012</v>
       </c>
       <c r="D634">
-        <v>1.47</v>
-      </c>
-    </row>
-    <row r="635" spans="1:4">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A635" s="1">
         <v>633</v>
       </c>
@@ -9504,10 +9556,10 @@
         <v>2013</v>
       </c>
       <c r="D635">
-        <v>1.81</v>
-      </c>
-    </row>
-    <row r="636" spans="1:4">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A636" s="1">
         <v>634</v>
       </c>
@@ -9518,10 +9570,10 @@
         <v>2014</v>
       </c>
       <c r="D636">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="637" spans="1:4">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A637" s="1">
         <v>635</v>
       </c>
@@ -9532,10 +9584,10 @@
         <v>2015</v>
       </c>
       <c r="D637">
-        <v>1.97</v>
-      </c>
-    </row>
-    <row r="638" spans="1:4">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A638" s="1">
         <v>636</v>
       </c>
@@ -9546,10 +9598,10 @@
         <v>2016</v>
       </c>
       <c r="D638">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="639" spans="1:4">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A639" s="1">
         <v>637</v>
       </c>
@@ -9560,10 +9612,10 @@
         <v>2017</v>
       </c>
       <c r="D639">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="640" spans="1:4">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A640" s="1">
         <v>638</v>
       </c>
@@ -9574,10 +9626,10 @@
         <v>2018</v>
       </c>
       <c r="D640">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="641" spans="1:4">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A641" s="1">
         <v>639</v>
       </c>
@@ -9588,10 +9640,10 @@
         <v>2019</v>
       </c>
       <c r="D641">
-        <v>2.61</v>
-      </c>
-    </row>
-    <row r="642" spans="1:4">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A642" s="1">
         <v>640</v>
       </c>
@@ -9602,10 +9654,10 @@
         <v>2010</v>
       </c>
       <c r="D642">
-        <v>2.82</v>
-      </c>
-    </row>
-    <row r="643" spans="1:4">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A643" s="1">
         <v>641</v>
       </c>
@@ -9616,10 +9668,10 @@
         <v>2011</v>
       </c>
       <c r="D643">
-        <v>0.5600000000000001</v>
-      </c>
-    </row>
-    <row r="644" spans="1:4">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A644" s="1">
         <v>642</v>
       </c>
@@ -9630,10 +9682,10 @@
         <v>2012</v>
       </c>
       <c r="D644">
-        <v>1.51</v>
-      </c>
-    </row>
-    <row r="645" spans="1:4">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A645" s="1">
         <v>643</v>
       </c>
@@ -9644,10 +9696,10 @@
         <v>2013</v>
       </c>
       <c r="D645">
-        <v>1.77</v>
-      </c>
-    </row>
-    <row r="646" spans="1:4">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A646" s="1">
         <v>644</v>
       </c>
@@ -9658,10 +9710,10 @@
         <v>2014</v>
       </c>
       <c r="D646">
-        <v>1.97</v>
-      </c>
-    </row>
-    <row r="647" spans="1:4">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A647" s="1">
         <v>645</v>
       </c>
@@ -9672,10 +9724,10 @@
         <v>2015</v>
       </c>
       <c r="D647">
-        <v>2.22</v>
-      </c>
-    </row>
-    <row r="648" spans="1:4">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A648" s="1">
         <v>646</v>
       </c>
@@ -9686,10 +9738,10 @@
         <v>2016</v>
       </c>
       <c r="D648">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="649" spans="1:4">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A649" s="1">
         <v>647</v>
       </c>
@@ -9700,10 +9752,10 @@
         <v>2017</v>
       </c>
       <c r="D649">
-        <v>1.27</v>
-      </c>
-    </row>
-    <row r="650" spans="1:4">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A650" s="1">
         <v>648</v>
       </c>
@@ -9714,10 +9766,10 @@
         <v>2018</v>
       </c>
       <c r="D650">
-        <v>1.51</v>
-      </c>
-    </row>
-    <row r="651" spans="1:4">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A651" s="1">
         <v>649</v>
       </c>
@@ -9728,10 +9780,10 @@
         <v>2019</v>
       </c>
       <c r="D651">
-        <v>2.39</v>
-      </c>
-    </row>
-    <row r="652" spans="1:4">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A652" s="1">
         <v>650</v>
       </c>
@@ -9742,10 +9794,10 @@
         <v>2010</v>
       </c>
       <c r="D652">
-        <v>1.14</v>
-      </c>
-    </row>
-    <row r="653" spans="1:4">
+        <v>-1.53</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A653" s="1">
         <v>651</v>
       </c>
@@ -9756,10 +9808,10 @@
         <v>2011</v>
       </c>
       <c r="D653">
-        <v>1.47</v>
-      </c>
-    </row>
-    <row r="654" spans="1:4">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A654" s="1">
         <v>652</v>
       </c>
@@ -9770,10 +9822,10 @@
         <v>2012</v>
       </c>
       <c r="D654">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="655" spans="1:4">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A655" s="1">
         <v>653</v>
       </c>
@@ -9784,10 +9836,10 @@
         <v>2013</v>
       </c>
       <c r="D655">
-        <v>1.27</v>
-      </c>
-    </row>
-    <row r="656" spans="1:4">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A656" s="1">
         <v>654</v>
       </c>
@@ -9798,10 +9850,10 @@
         <v>2014</v>
       </c>
       <c r="D656">
-        <v>1.76</v>
-      </c>
-    </row>
-    <row r="657" spans="1:4">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A657" s="1">
         <v>655</v>
       </c>
@@ -9812,10 +9864,10 @@
         <v>2015</v>
       </c>
       <c r="D657">
-        <v>2.09</v>
-      </c>
-    </row>
-    <row r="658" spans="1:4">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A658" s="1">
         <v>656</v>
       </c>
@@ -9826,10 +9878,10 @@
         <v>2016</v>
       </c>
       <c r="D658">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="659" spans="1:4">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A659" s="1">
         <v>657</v>
       </c>
@@ -9840,10 +9892,10 @@
         <v>2017</v>
       </c>
       <c r="D659">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="660" spans="1:4">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A660" s="1">
         <v>658</v>
       </c>
@@ -9854,10 +9906,10 @@
         <v>2018</v>
       </c>
       <c r="D660">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="661" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A661" s="1">
         <v>659</v>
       </c>
@@ -9868,10 +9920,10 @@
         <v>2019</v>
       </c>
       <c r="D661">
-        <v>2.14</v>
-      </c>
-    </row>
-    <row r="662" spans="1:4">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A662" s="1">
         <v>660</v>
       </c>
@@ -9882,10 +9934,10 @@
         <v>2010</v>
       </c>
       <c r="D662">
-        <v>-1.53</v>
-      </c>
-    </row>
-    <row r="663" spans="1:4">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A663" s="1">
         <v>661</v>
       </c>
@@ -9896,10 +9948,10 @@
         <v>2011</v>
       </c>
       <c r="D663">
-        <v>1.58</v>
-      </c>
-    </row>
-    <row r="664" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A664" s="1">
         <v>662</v>
       </c>
@@ -9910,10 +9962,10 @@
         <v>2012</v>
       </c>
       <c r="D664">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="665" spans="1:4">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A665" s="1">
         <v>663</v>
       </c>
@@ -9924,10 +9976,10 @@
         <v>2013</v>
       </c>
       <c r="D665">
-        <v>1.09</v>
-      </c>
-    </row>
-    <row r="666" spans="1:4">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A666" s="1">
         <v>664</v>
       </c>
@@ -9938,10 +9990,10 @@
         <v>2014</v>
       </c>
       <c r="D666">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="667" spans="1:4">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A667" s="1">
         <v>665</v>
       </c>
@@ -9952,10 +10004,10 @@
         <v>2015</v>
       </c>
       <c r="D667">
-        <v>2.14</v>
-      </c>
-    </row>
-    <row r="668" spans="1:4">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A668" s="1">
         <v>666</v>
       </c>
@@ -9966,10 +10018,10 @@
         <v>2016</v>
       </c>
       <c r="D668">
-        <v>1.48</v>
-      </c>
-    </row>
-    <row r="669" spans="1:4">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="669" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A669" s="1">
         <v>667</v>
       </c>
@@ -9980,10 +10032,10 @@
         <v>2017</v>
       </c>
       <c r="D669">
-        <v>1.63</v>
-      </c>
-    </row>
-    <row r="670" spans="1:4">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A670" s="1">
         <v>668</v>
       </c>
@@ -9994,10 +10046,10 @@
         <v>2018</v>
       </c>
       <c r="D670">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="671" spans="1:4">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="671" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A671" s="1">
         <v>669</v>
       </c>
@@ -10008,10 +10060,10 @@
         <v>2019</v>
       </c>
       <c r="D671">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row r="672" spans="1:4">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A672" s="1">
         <v>670</v>
       </c>
@@ -10022,10 +10074,10 @@
         <v>2010</v>
       </c>
       <c r="D672">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="673" spans="1:4">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A673" s="1">
         <v>671</v>
       </c>
@@ -10036,10 +10088,10 @@
         <v>2011</v>
       </c>
       <c r="D673">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="674" spans="1:4">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="674" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A674" s="1">
         <v>672</v>
       </c>
@@ -10050,10 +10102,10 @@
         <v>2012</v>
       </c>
       <c r="D674">
-        <v>0.8100000000000001</v>
-      </c>
-    </row>
-    <row r="675" spans="1:4">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A675" s="1">
         <v>673</v>
       </c>
@@ -10064,10 +10116,10 @@
         <v>2013</v>
       </c>
       <c r="D675">
-        <v>1.12</v>
-      </c>
-    </row>
-    <row r="676" spans="1:4">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A676" s="1">
         <v>674</v>
       </c>
@@ -10078,10 +10130,10 @@
         <v>2014</v>
       </c>
       <c r="D676">
-        <v>1.82</v>
-      </c>
-    </row>
-    <row r="677" spans="1:4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A677" s="1">
         <v>675</v>
       </c>
@@ -10092,10 +10144,10 @@
         <v>2015</v>
       </c>
       <c r="D677">
-        <v>2.13</v>
-      </c>
-    </row>
-    <row r="678" spans="1:4">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A678" s="1">
         <v>676</v>
       </c>
@@ -10106,10 +10158,10 @@
         <v>2016</v>
       </c>
       <c r="D678">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="679" spans="1:4">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A679" s="1">
         <v>677</v>
       </c>
@@ -10120,10 +10172,10 @@
         <v>2017</v>
       </c>
       <c r="D679">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="680" spans="1:4">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A680" s="1">
         <v>678</v>
       </c>
@@ -10134,10 +10186,10 @@
         <v>2018</v>
       </c>
       <c r="D680">
-        <v>1.31</v>
-      </c>
-    </row>
-    <row r="681" spans="1:4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A681" s="1">
         <v>679</v>
       </c>
@@ -10148,10 +10200,10 @@
         <v>2019</v>
       </c>
       <c r="D681">
-        <v>2.12</v>
-      </c>
-    </row>
-    <row r="682" spans="1:4">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A682" s="1">
         <v>680</v>
       </c>
@@ -10162,10 +10214,10 @@
         <v>2010</v>
       </c>
       <c r="D682">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="683" spans="1:4">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A683" s="1">
         <v>681</v>
       </c>
@@ -10176,10 +10228,10 @@
         <v>2011</v>
       </c>
       <c r="D683">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="684" spans="1:4">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A684" s="1">
         <v>682</v>
       </c>
@@ -10190,10 +10242,10 @@
         <v>2012</v>
       </c>
       <c r="D684">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="685" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A685" s="1">
         <v>683</v>
       </c>
@@ -10204,10 +10256,10 @@
         <v>2013</v>
       </c>
       <c r="D685">
-        <v>1.21</v>
-      </c>
-    </row>
-    <row r="686" spans="1:4">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A686" s="1">
         <v>684</v>
       </c>
@@ -10218,10 +10270,10 @@
         <v>2014</v>
       </c>
       <c r="D686">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="687" spans="1:4">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A687" s="1">
         <v>685</v>
       </c>
@@ -10232,10 +10284,10 @@
         <v>2015</v>
       </c>
       <c r="D687">
-        <v>1.29</v>
-      </c>
-    </row>
-    <row r="688" spans="1:4">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="688" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A688" s="1">
         <v>686</v>
       </c>
@@ -10246,10 +10298,10 @@
         <v>2016</v>
       </c>
       <c r="D688">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="689" spans="1:4">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A689" s="1">
         <v>687</v>
       </c>
@@ -10260,10 +10312,10 @@
         <v>2017</v>
       </c>
       <c r="D689">
-        <v>1.13</v>
-      </c>
-    </row>
-    <row r="690" spans="1:4">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A690" s="1">
         <v>688</v>
       </c>
@@ -10274,10 +10326,10 @@
         <v>2018</v>
       </c>
       <c r="D690">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="691" spans="1:4">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A691" s="1">
         <v>689</v>
       </c>
@@ -10288,10 +10340,10 @@
         <v>2019</v>
       </c>
       <c r="D691">
-        <v>1.29</v>
-      </c>
-    </row>
-    <row r="692" spans="1:4">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A692" s="1">
         <v>690</v>
       </c>
@@ -10302,10 +10354,10 @@
         <v>2010</v>
       </c>
       <c r="D692">
-        <v>1.89</v>
-      </c>
-    </row>
-    <row r="693" spans="1:4">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A693" s="1">
         <v>691</v>
       </c>
@@ -10316,10 +10368,10 @@
         <v>2011</v>
       </c>
       <c r="D693">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="694" spans="1:4">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A694" s="1">
         <v>692</v>
       </c>
@@ -10330,10 +10382,10 @@
         <v>2012</v>
       </c>
       <c r="D694">
-        <v>1.53</v>
-      </c>
-    </row>
-    <row r="695" spans="1:4">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A695" s="1">
         <v>693</v>
       </c>
@@ -10344,10 +10396,10 @@
         <v>2013</v>
       </c>
       <c r="D695">
-        <v>1.87</v>
-      </c>
-    </row>
-    <row r="696" spans="1:4">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A696" s="1">
         <v>694</v>
       </c>
@@ -10358,10 +10410,10 @@
         <v>2014</v>
       </c>
       <c r="D696">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="697" spans="1:4">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="697" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A697" s="1">
         <v>695</v>
       </c>
@@ -10372,10 +10424,10 @@
         <v>2015</v>
       </c>
       <c r="D697">
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="698" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A698" s="1">
         <v>696</v>
       </c>
@@ -10386,10 +10438,10 @@
         <v>2016</v>
       </c>
       <c r="D698">
-        <v>1.94</v>
-      </c>
-    </row>
-    <row r="699" spans="1:4">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="699" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A699" s="1">
         <v>697</v>
       </c>
@@ -10400,10 +10452,10 @@
         <v>2017</v>
       </c>
       <c r="D699">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="700" spans="1:4">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A700" s="1">
         <v>698</v>
       </c>
@@ -10414,10 +10466,10 @@
         <v>2018</v>
       </c>
       <c r="D700">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="701" spans="1:4">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="701" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A701" s="1">
         <v>699</v>
       </c>
@@ -10428,10 +10480,10 @@
         <v>2019</v>
       </c>
       <c r="D701">
-        <v>1.16</v>
-      </c>
-    </row>
-    <row r="702" spans="1:4">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="702" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A702" s="1">
         <v>700</v>
       </c>
@@ -10442,10 +10494,10 @@
         <v>2010</v>
       </c>
       <c r="D702">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="703" spans="1:4">
+        <v>-0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="703" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A703" s="1">
         <v>701</v>
       </c>
@@ -10456,10 +10508,10 @@
         <v>2011</v>
       </c>
       <c r="D703">
-        <v>1.16</v>
-      </c>
-    </row>
-    <row r="704" spans="1:4">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="704" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A704" s="1">
         <v>702</v>
       </c>
@@ -10470,10 +10522,10 @@
         <v>2012</v>
       </c>
       <c r="D704">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="705" spans="1:4">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="705" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A705" s="1">
         <v>703</v>
       </c>
@@ -10484,10 +10536,10 @@
         <v>2013</v>
       </c>
       <c r="D705">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="706" spans="1:4">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="706" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A706" s="1">
         <v>704</v>
       </c>
@@ -10498,10 +10550,10 @@
         <v>2014</v>
       </c>
       <c r="D706">
-        <v>1.19</v>
-      </c>
-    </row>
-    <row r="707" spans="1:4">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A707" s="1">
         <v>705</v>
       </c>
@@ -10512,10 +10564,10 @@
         <v>2015</v>
       </c>
       <c r="D707">
-        <v>1.53</v>
-      </c>
-    </row>
-    <row r="708" spans="1:4">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A708" s="1">
         <v>706</v>
       </c>
@@ -10526,10 +10578,10 @@
         <v>2016</v>
       </c>
       <c r="D708">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="709" spans="1:4">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A709" s="1">
         <v>707</v>
       </c>
@@ -10540,10 +10592,10 @@
         <v>2017</v>
       </c>
       <c r="D709">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="710" spans="1:4">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A710" s="1">
         <v>708</v>
       </c>
@@ -10554,10 +10606,10 @@
         <v>2018</v>
       </c>
       <c r="D710">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="711" spans="1:4">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A711" s="1">
         <v>709</v>
       </c>
@@ -10568,10 +10620,10 @@
         <v>2019</v>
       </c>
       <c r="D711">
-        <v>1.12</v>
-      </c>
-    </row>
-    <row r="712" spans="1:4">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A712" s="1">
         <v>710</v>
       </c>
@@ -10582,10 +10634,10 @@
         <v>2010</v>
       </c>
       <c r="D712">
-        <v>-0.58</v>
-      </c>
-    </row>
-    <row r="713" spans="1:4">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A713" s="1">
         <v>711</v>
       </c>
@@ -10596,10 +10648,10 @@
         <v>2011</v>
       </c>
       <c r="D713">
-        <v>1.77</v>
-      </c>
-    </row>
-    <row r="714" spans="1:4">
+        <v>-0.42</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A714" s="1">
         <v>712</v>
       </c>
@@ -10610,10 +10662,10 @@
         <v>2012</v>
       </c>
       <c r="D714">
-        <v>1.89</v>
-      </c>
-    </row>
-    <row r="715" spans="1:4">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A715" s="1">
         <v>713</v>
       </c>
@@ -10624,10 +10676,10 @@
         <v>2013</v>
       </c>
       <c r="D715">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="716" spans="1:4">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="716" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A716" s="1">
         <v>714</v>
       </c>
@@ -10638,10 +10690,10 @@
         <v>2014</v>
       </c>
       <c r="D716">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="717" spans="1:4">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A717" s="1">
         <v>715</v>
       </c>
@@ -10652,10 +10704,10 @@
         <v>2015</v>
       </c>
       <c r="D717">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="718" spans="1:4">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A718" s="1">
         <v>716</v>
       </c>
@@ -10666,10 +10718,10 @@
         <v>2016</v>
       </c>
       <c r="D718">
-        <v>1.96</v>
-      </c>
-    </row>
-    <row r="719" spans="1:4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A719" s="1">
         <v>717</v>
       </c>
@@ -10680,10 +10732,10 @@
         <v>2017</v>
       </c>
       <c r="D719">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="720" spans="1:4">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A720" s="1">
         <v>718</v>
       </c>
@@ -10694,10 +10746,10 @@
         <v>2018</v>
       </c>
       <c r="D720">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="721" spans="1:4">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="721" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A721" s="1">
         <v>719</v>
       </c>
@@ -10708,10 +10760,10 @@
         <v>2019</v>
       </c>
       <c r="D721">
-        <v>1.43</v>
-      </c>
-    </row>
-    <row r="722" spans="1:4">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="722" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A722" s="1">
         <v>720</v>
       </c>
@@ -10722,10 +10774,10 @@
         <v>2010</v>
       </c>
       <c r="D722">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="723" spans="1:4">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="723" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A723" s="1">
         <v>721</v>
       </c>
@@ -10736,10 +10788,10 @@
         <v>2011</v>
       </c>
       <c r="D723">
-        <v>-0.42</v>
-      </c>
-    </row>
-    <row r="724" spans="1:4">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="724" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A724" s="1">
         <v>722</v>
       </c>
@@ -10750,10 +10802,10 @@
         <v>2012</v>
       </c>
       <c r="D724">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="725" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A725" s="1">
         <v>723</v>
       </c>
@@ -10764,10 +10816,10 @@
         <v>2013</v>
       </c>
       <c r="D725">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="726" spans="1:4">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="726" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A726" s="1">
         <v>724</v>
       </c>
@@ -10778,10 +10830,10 @@
         <v>2014</v>
       </c>
       <c r="D726">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="727" spans="1:4">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="727" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A727" s="1">
         <v>725</v>
       </c>
@@ -10792,10 +10844,10 @@
         <v>2015</v>
       </c>
       <c r="D727">
-        <v>1.29</v>
-      </c>
-    </row>
-    <row r="728" spans="1:4">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="728" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A728" s="1">
         <v>726</v>
       </c>
@@ -10806,10 +10858,10 @@
         <v>2016</v>
       </c>
       <c r="D728">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="729" spans="1:4">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="729" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A729" s="1">
         <v>727</v>
       </c>
@@ -10820,10 +10872,10 @@
         <v>2017</v>
       </c>
       <c r="D729">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="730" spans="1:4">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="730" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A730" s="1">
         <v>728</v>
       </c>
@@ -10834,10 +10886,10 @@
         <v>2018</v>
       </c>
       <c r="D730">
-        <v>-0.18</v>
-      </c>
-    </row>
-    <row r="731" spans="1:4">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="731" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A731" s="1">
         <v>729</v>
       </c>
@@ -10848,10 +10900,10 @@
         <v>2019</v>
       </c>
       <c r="D731">
-        <v>1.37</v>
-      </c>
-    </row>
-    <row r="732" spans="1:4">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="732" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A732" s="1">
         <v>730</v>
       </c>
@@ -10862,10 +10914,10 @@
         <v>2010</v>
       </c>
       <c r="D732">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="733" spans="1:4">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="733" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A733" s="1">
         <v>731</v>
       </c>
@@ -10876,10 +10928,10 @@
         <v>2011</v>
       </c>
       <c r="D733">
-        <v>-0.6</v>
-      </c>
-    </row>
-    <row r="734" spans="1:4">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="734" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A734" s="1">
         <v>732</v>
       </c>
@@ -10890,10 +10942,10 @@
         <v>2012</v>
       </c>
       <c r="D734">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="735" spans="1:4">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="735" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A735" s="1">
         <v>733</v>
       </c>
@@ -10904,10 +10956,10 @@
         <v>2013</v>
       </c>
       <c r="D735">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="736" spans="1:4">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="736" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A736" s="1">
         <v>734</v>
       </c>
@@ -10918,10 +10970,10 @@
         <v>2014</v>
       </c>
       <c r="D736">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="737" spans="1:4">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="737" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A737" s="1">
         <v>735</v>
       </c>
@@ -10932,10 +10984,10 @@
         <v>2015</v>
       </c>
       <c r="D737">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="738" spans="1:4">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="738" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A738" s="1">
         <v>736</v>
       </c>
@@ -10946,10 +10998,10 @@
         <v>2016</v>
       </c>
       <c r="D738">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="739" spans="1:4">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="739" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A739" s="1">
         <v>737</v>
       </c>
@@ -10960,10 +11012,10 @@
         <v>2017</v>
       </c>
       <c r="D739">
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="740" spans="1:4">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="740" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A740" s="1">
         <v>738</v>
       </c>
@@ -10974,10 +11026,10 @@
         <v>2018</v>
       </c>
       <c r="D740">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="741" spans="1:4">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="741" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A741" s="1">
         <v>739</v>
       </c>
@@ -10988,10 +11040,10 @@
         <v>2019</v>
       </c>
       <c r="D741">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="742" spans="1:4">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="742" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A742" s="1">
         <v>740</v>
       </c>
@@ -11002,10 +11054,10 @@
         <v>2010</v>
       </c>
       <c r="D742">
-        <v>2.21</v>
-      </c>
-    </row>
-    <row r="743" spans="1:4">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="743" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A743" s="1">
         <v>741</v>
       </c>
@@ -11016,10 +11068,10 @@
         <v>2011</v>
       </c>
       <c r="D743">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="744" spans="1:4">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="744" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A744" s="1">
         <v>742</v>
       </c>
@@ -11030,10 +11082,10 @@
         <v>2012</v>
       </c>
       <c r="D744">
-        <v>1.09</v>
-      </c>
-    </row>
-    <row r="745" spans="1:4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="745" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A745" s="1">
         <v>743</v>
       </c>
@@ -11044,10 +11096,10 @@
         <v>2013</v>
       </c>
       <c r="D745">
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="746" spans="1:4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A746" s="1">
         <v>744</v>
       </c>
@@ -11058,10 +11110,10 @@
         <v>2014</v>
       </c>
       <c r="D746">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="747" spans="1:4">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A747" s="1">
         <v>745</v>
       </c>
@@ -11072,10 +11124,10 @@
         <v>2015</v>
       </c>
       <c r="D747">
-        <v>1.88</v>
-      </c>
-    </row>
-    <row r="748" spans="1:4">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A748" s="1">
         <v>746</v>
       </c>
@@ -11086,10 +11138,10 @@
         <v>2016</v>
       </c>
       <c r="D748">
-        <v>1.51</v>
-      </c>
-    </row>
-    <row r="749" spans="1:4">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A749" s="1">
         <v>747</v>
       </c>
@@ -11100,10 +11152,10 @@
         <v>2017</v>
       </c>
       <c r="D749">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="750" spans="1:4">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A750" s="1">
         <v>748</v>
       </c>
@@ -11114,10 +11166,10 @@
         <v>2018</v>
       </c>
       <c r="D750">
-        <v>1.07</v>
-      </c>
-    </row>
-    <row r="751" spans="1:4">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A751" s="1">
         <v>749</v>
       </c>
@@ -11128,10 +11180,10 @@
         <v>2019</v>
       </c>
       <c r="D751">
-        <v>1.81</v>
-      </c>
-    </row>
-    <row r="752" spans="1:4">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A752" s="1">
         <v>750</v>
       </c>
@@ -11142,10 +11194,10 @@
         <v>2010</v>
       </c>
       <c r="D752">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="753" spans="1:4">
+        <v>-0.76</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A753" s="1">
         <v>751</v>
       </c>
@@ -11156,10 +11208,10 @@
         <v>2011</v>
       </c>
       <c r="D753">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="754" spans="1:4">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A754" s="1">
         <v>752</v>
       </c>
@@ -11170,10 +11222,10 @@
         <v>2012</v>
       </c>
       <c r="D754">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="755" spans="1:4">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="755" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A755" s="1">
         <v>753</v>
       </c>
@@ -11184,10 +11236,10 @@
         <v>2013</v>
       </c>
       <c r="D755">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="756" spans="1:4">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A756" s="1">
         <v>754</v>
       </c>
@@ -11198,10 +11250,10 @@
         <v>2014</v>
       </c>
       <c r="D756">
-        <v>3.12</v>
-      </c>
-    </row>
-    <row r="757" spans="1:4">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A757" s="1">
         <v>755</v>
       </c>
@@ -11212,10 +11264,10 @@
         <v>2015</v>
       </c>
       <c r="D757">
-        <v>1.43</v>
-      </c>
-    </row>
-    <row r="758" spans="1:4">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A758" s="1">
         <v>756</v>
       </c>
@@ -11226,10 +11278,10 @@
         <v>2016</v>
       </c>
       <c r="D758">
-        <v>3.67</v>
-      </c>
-    </row>
-    <row r="759" spans="1:4">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="759" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A759" s="1">
         <v>757</v>
       </c>
@@ -11240,10 +11292,10 @@
         <v>2017</v>
       </c>
       <c r="D759">
-        <v>3.86</v>
-      </c>
-    </row>
-    <row r="760" spans="1:4">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A760" s="1">
         <v>758</v>
       </c>
@@ -11254,10 +11306,10 @@
         <v>2018</v>
       </c>
       <c r="D760">
-        <v>3.08</v>
-      </c>
-    </row>
-    <row r="761" spans="1:4">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="761" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A761" s="1">
         <v>759</v>
       </c>
@@ -11268,10 +11320,10 @@
         <v>2019</v>
       </c>
       <c r="D761">
-        <v>3.31</v>
-      </c>
-    </row>
-    <row r="762" spans="1:4">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A762" s="1">
         <v>760</v>
       </c>
@@ -11282,10 +11334,10 @@
         <v>2010</v>
       </c>
       <c r="D762">
-        <v>-0.76</v>
-      </c>
-    </row>
-    <row r="763" spans="1:4">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="763" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A763" s="1">
         <v>761</v>
       </c>
@@ -11296,10 +11348,10 @@
         <v>2011</v>
       </c>
       <c r="D763">
-        <v>3.49</v>
-      </c>
-    </row>
-    <row r="764" spans="1:4">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A764" s="1">
         <v>762</v>
       </c>
@@ -11310,10 +11362,10 @@
         <v>2012</v>
       </c>
       <c r="D764">
-        <v>3.48</v>
-      </c>
-    </row>
-    <row r="765" spans="1:4">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="765" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A765" s="1">
         <v>763</v>
       </c>
@@ -11324,10 +11376,10 @@
         <v>2013</v>
       </c>
       <c r="D765">
-        <v>1.36</v>
-      </c>
-    </row>
-    <row r="766" spans="1:4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A766" s="1">
         <v>764</v>
       </c>
@@ -11338,10 +11390,10 @@
         <v>2014</v>
       </c>
       <c r="D766">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="767" spans="1:4">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="767" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A767" s="1">
         <v>765</v>
       </c>
@@ -11352,10 +11404,10 @@
         <v>2015</v>
       </c>
       <c r="D767">
-        <v>2.71</v>
-      </c>
-    </row>
-    <row r="768" spans="1:4">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A768" s="1">
         <v>766</v>
       </c>
@@ -11366,10 +11418,10 @@
         <v>2016</v>
       </c>
       <c r="D768">
-        <v>3.85</v>
-      </c>
-    </row>
-    <row r="769" spans="1:4">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="769" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A769" s="1">
         <v>767</v>
       </c>
@@ -11380,10 +11432,10 @@
         <v>2017</v>
       </c>
       <c r="D769">
-        <v>2.69</v>
-      </c>
-    </row>
-    <row r="770" spans="1:4">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="770" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A770" s="1">
         <v>768</v>
       </c>
@@ -11394,10 +11446,10 @@
         <v>2018</v>
       </c>
       <c r="D770">
-        <v>1.97</v>
-      </c>
-    </row>
-    <row r="771" spans="1:4">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="771" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A771" s="1">
         <v>769</v>
       </c>
@@ -11408,146 +11460,6 @@
         <v>2019</v>
       </c>
       <c r="D771">
-        <v>2.71</v>
-      </c>
-    </row>
-    <row r="772" spans="1:4">
-      <c r="A772" s="1">
-        <v>770</v>
-      </c>
-      <c r="B772" t="s">
-        <v>80</v>
-      </c>
-      <c r="C772">
-        <v>2010</v>
-      </c>
-      <c r="D772">
-        <v>1.18</v>
-      </c>
-    </row>
-    <row r="773" spans="1:4">
-      <c r="A773" s="1">
-        <v>771</v>
-      </c>
-      <c r="B773" t="s">
-        <v>80</v>
-      </c>
-      <c r="C773">
-        <v>2011</v>
-      </c>
-      <c r="D773">
-        <v>1.12</v>
-      </c>
-    </row>
-    <row r="774" spans="1:4">
-      <c r="A774" s="1">
-        <v>772</v>
-      </c>
-      <c r="B774" t="s">
-        <v>80</v>
-      </c>
-      <c r="C774">
-        <v>2012</v>
-      </c>
-      <c r="D774">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="775" spans="1:4">
-      <c r="A775" s="1">
-        <v>773</v>
-      </c>
-      <c r="B775" t="s">
-        <v>80</v>
-      </c>
-      <c r="C775">
-        <v>2013</v>
-      </c>
-      <c r="D775">
-        <v>1.53</v>
-      </c>
-    </row>
-    <row r="776" spans="1:4">
-      <c r="A776" s="1">
-        <v>774</v>
-      </c>
-      <c r="B776" t="s">
-        <v>80</v>
-      </c>
-      <c r="C776">
-        <v>2014</v>
-      </c>
-      <c r="D776">
-        <v>2.04</v>
-      </c>
-    </row>
-    <row r="777" spans="1:4">
-      <c r="A777" s="1">
-        <v>775</v>
-      </c>
-      <c r="B777" t="s">
-        <v>80</v>
-      </c>
-      <c r="C777">
-        <v>2015</v>
-      </c>
-      <c r="D777">
-        <v>2.23</v>
-      </c>
-    </row>
-    <row r="778" spans="1:4">
-      <c r="A778" s="1">
-        <v>776</v>
-      </c>
-      <c r="B778" t="s">
-        <v>80</v>
-      </c>
-      <c r="C778">
-        <v>2016</v>
-      </c>
-      <c r="D778">
-        <v>1.39</v>
-      </c>
-    </row>
-    <row r="779" spans="1:4">
-      <c r="A779" s="1">
-        <v>777</v>
-      </c>
-      <c r="B779" t="s">
-        <v>80</v>
-      </c>
-      <c r="C779">
-        <v>2017</v>
-      </c>
-      <c r="D779">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="780" spans="1:4">
-      <c r="A780" s="1">
-        <v>778</v>
-      </c>
-      <c r="B780" t="s">
-        <v>80</v>
-      </c>
-      <c r="C780">
-        <v>2018</v>
-      </c>
-      <c r="D780">
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="781" spans="1:4">
-      <c r="A781" s="1">
-        <v>779</v>
-      </c>
-      <c r="B781" t="s">
-        <v>80</v>
-      </c>
-      <c r="C781">
-        <v>2019</v>
-      </c>
-      <c r="D781">
         <v>2.16</v>
       </c>
     </row>
